--- a/data/trans_camb/P1429-Provincia-trans_camb.xlsx
+++ b/data/trans_camb/P1429-Provincia-trans_camb.xlsx
@@ -646,7 +646,7 @@
         <v>0.2728512760318335</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>0.7346805520860805</v>
+        <v>0.7346805520860807</v>
       </c>
       <c r="F4" s="5" t="n">
         <v>1.575980056799825</v>
@@ -655,7 +655,7 @@
         <v>1.628318298588987</v>
       </c>
       <c r="H4" s="5" t="n">
-        <v>0.3020014477278111</v>
+        <v>0.3020014477278104</v>
       </c>
       <c r="I4" s="5" t="n">
         <v>0.7952713479323335</v>
@@ -664,7 +664,7 @@
         <v>0.9642232425249874</v>
       </c>
       <c r="K4" s="5" t="n">
-        <v>0.5447578202268364</v>
+        <v>0.5447578202268359</v>
       </c>
     </row>
     <row r="5">
@@ -679,25 +679,25 @@
         <v>0</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>0.209594417768843</v>
+        <v>0.2099819739042477</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>-1.57373427736721</v>
+        <v>-1.475203077929621</v>
       </c>
       <c r="G5" s="5" t="n">
-        <v>-1.69020247434821</v>
+        <v>-1.686206973275786</v>
       </c>
       <c r="H5" s="5" t="n">
-        <v>-2.79573301819366</v>
+        <v>-2.513017808214733</v>
       </c>
       <c r="I5" s="5" t="n">
-        <v>-0.8740544829358994</v>
+        <v>-0.7658749068323265</v>
       </c>
       <c r="J5" s="5" t="n">
-        <v>-0.5346464690214586</v>
+        <v>-0.5674171445721252</v>
       </c>
       <c r="K5" s="5" t="n">
-        <v>-0.9797952666357419</v>
+        <v>-0.9163159071934653</v>
       </c>
     </row>
     <row r="6">
@@ -709,28 +709,28 @@
       </c>
       <c r="C6" s="5" t="inlineStr"/>
       <c r="D6" s="5" t="n">
-        <v>1.502202868179994</v>
+        <v>1.241788731333252</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>1.887766372465962</v>
+        <v>2.136962404680942</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>5.199660336719476</v>
+        <v>5.312954224690724</v>
       </c>
       <c r="G6" s="5" t="n">
-        <v>4.858069839742765</v>
+        <v>5.001867719914058</v>
       </c>
       <c r="H6" s="5" t="n">
-        <v>2.534511588518359</v>
+        <v>2.496324289474297</v>
       </c>
       <c r="I6" s="5" t="n">
-        <v>2.44383849956021</v>
+        <v>2.579913421783088</v>
       </c>
       <c r="J6" s="5" t="n">
-        <v>2.593523073991162</v>
+        <v>2.55349059779398</v>
       </c>
       <c r="K6" s="5" t="n">
-        <v>1.594285772167207</v>
+        <v>1.752939982998056</v>
       </c>
     </row>
     <row r="7">
@@ -758,7 +758,7 @@
         <v>0.588667761985478</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.1091792166828551</v>
+        <v>0.1091792166828548</v>
       </c>
       <c r="I7" s="6" t="n">
         <v>0.5884274404312457</v>
@@ -767,7 +767,7 @@
         <v>0.7134362580500894</v>
       </c>
       <c r="K7" s="6" t="n">
-        <v>0.4030705376779856</v>
+        <v>0.4030705376779853</v>
       </c>
     </row>
     <row r="8">
@@ -781,22 +781,22 @@
       <c r="D8" s="6" t="inlineStr"/>
       <c r="E8" s="6" t="inlineStr"/>
       <c r="F8" s="6" t="n">
-        <v>-0.4661478724072834</v>
+        <v>-0.454225778971903</v>
       </c>
       <c r="G8" s="6" t="n">
-        <v>-0.4694648589222163</v>
+        <v>-0.4613982191274761</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>-0.5347594224217258</v>
+        <v>-0.546984933002489</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>-0.5250545409196661</v>
+        <v>-0.5015899611884015</v>
       </c>
       <c r="J8" s="6" t="n">
-        <v>-0.3603426696231393</v>
+        <v>-0.3439917015382025</v>
       </c>
       <c r="K8" s="6" t="n">
-        <v>-0.4315289460123179</v>
+        <v>-0.4246643943771309</v>
       </c>
     </row>
     <row r="9">
@@ -810,22 +810,22 @@
       <c r="D9" s="6" t="inlineStr"/>
       <c r="E9" s="6" t="inlineStr"/>
       <c r="F9" s="6" t="n">
-        <v>3.552382252282632</v>
+        <v>3.760899085798391</v>
       </c>
       <c r="G9" s="6" t="n">
-        <v>3.477983587894232</v>
+        <v>3.773406933993956</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>2.041311783708741</v>
+        <v>1.979681020218984</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>3.772158224948646</v>
+        <v>3.299455067368428</v>
       </c>
       <c r="J9" s="6" t="n">
-        <v>3.875928738067089</v>
+        <v>3.635590901659575</v>
       </c>
       <c r="K9" s="6" t="n">
-        <v>2.42176040147189</v>
+        <v>2.765630027352067</v>
       </c>
     </row>
     <row r="10">
@@ -875,31 +875,31 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>-0.2035874138319754</v>
+        <v>-0.2042560129529457</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>-0.6533499157720262</v>
+        <v>-0.796590431332036</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>-0.6242355765197191</v>
+        <v>-0.624177926065547</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>-6.954358384035689</v>
+        <v>-7.042909525253458</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>-6.376954590180792</v>
+        <v>-6.31701752769998</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>-6.161050426395742</v>
+        <v>-6.497246901600159</v>
       </c>
       <c r="I11" s="5" t="n">
-        <v>-3.399434516143085</v>
+        <v>-3.472699592520502</v>
       </c>
       <c r="J11" s="5" t="n">
-        <v>-3.355431039305493</v>
+        <v>-3.390083018807414</v>
       </c>
       <c r="K11" s="5" t="n">
-        <v>-3.28741549152209</v>
+        <v>-3.359102116043216</v>
       </c>
     </row>
     <row r="12">
@@ -910,31 +910,31 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>2.022058569258408</v>
+        <v>2.138498300301427</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>0.2958215125499255</v>
+        <v>0.2979240780310375</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>0.3623986185364401</v>
+        <v>0.3680088414692657</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>-1.622290950720473</v>
+        <v>-1.651964263107009</v>
       </c>
       <c r="G12" s="5" t="n">
-        <v>-0.5464544682725742</v>
+        <v>-0.75734149978681</v>
       </c>
       <c r="H12" s="5" t="n">
-        <v>-1.288204982215057</v>
+        <v>-1.446426341214976</v>
       </c>
       <c r="I12" s="5" t="n">
-        <v>-0.4465921904348698</v>
+        <v>-0.4976830464826895</v>
       </c>
       <c r="J12" s="5" t="n">
-        <v>-0.4161439991664495</v>
+        <v>-0.4130620488834626</v>
       </c>
       <c r="K12" s="5" t="n">
-        <v>-0.6702053181031843</v>
+        <v>-0.718454034532477</v>
       </c>
     </row>
     <row r="13">
@@ -983,22 +983,22 @@
       <c r="D14" s="6" t="inlineStr"/>
       <c r="E14" s="6" t="inlineStr"/>
       <c r="F14" s="6" t="n">
-        <v>-0.8176204890602775</v>
+        <v>-0.8061754884709645</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>-0.7255148552752569</v>
+        <v>-0.7286363338982605</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>-0.7214541428651138</v>
+        <v>-0.7228559004065734</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>-0.7448328577776873</v>
+        <v>-0.7613359964186356</v>
       </c>
       <c r="J14" s="6" t="n">
-        <v>-0.7322099624770828</v>
+        <v>-0.7485853654699097</v>
       </c>
       <c r="K14" s="6" t="n">
-        <v>-0.7224322471762643</v>
+        <v>-0.7310349526187714</v>
       </c>
     </row>
     <row r="15">
@@ -1012,22 +1012,22 @@
       <c r="D15" s="6" t="inlineStr"/>
       <c r="E15" s="6" t="inlineStr"/>
       <c r="F15" s="6" t="n">
-        <v>-0.2922617082399931</v>
+        <v>-0.244199127327836</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>-0.03184615413965814</v>
+        <v>-0.07689479471880972</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>-0.2518574640986861</v>
+        <v>-0.2454413648830498</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>-0.1035806211262442</v>
+        <v>-0.09292204712668836</v>
       </c>
       <c r="J15" s="6" t="n">
-        <v>-0.1260944194599941</v>
+        <v>-0.1226375887447631</v>
       </c>
       <c r="K15" s="6" t="n">
-        <v>-0.1891355939967429</v>
+        <v>-0.237296799452528</v>
       </c>
     </row>
     <row r="16">
@@ -1057,7 +1057,7 @@
         <v>-2.419166707333714</v>
       </c>
       <c r="H16" s="5" t="n">
-        <v>0.706122708010063</v>
+        <v>0.7061227080100624</v>
       </c>
       <c r="I16" s="5" t="n">
         <v>-0.4927045872715329</v>
@@ -1077,31 +1077,31 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>-0.9446027149495578</v>
+        <v>-0.9408951409230034</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>-1.705268403908844</v>
+        <v>-1.626324448550121</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>-0.9467149017793344</v>
+        <v>-0.9471840949823565</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>-3.766065451592407</v>
+        <v>-3.903781185757339</v>
       </c>
       <c r="G17" s="5" t="n">
-        <v>-5.293835426318454</v>
+        <v>-5.122349931104651</v>
       </c>
       <c r="H17" s="5" t="n">
-        <v>-2.336930425137743</v>
+        <v>-1.959481629871537</v>
       </c>
       <c r="I17" s="5" t="n">
-        <v>-2.048100508280076</v>
+        <v>-2.138387534337067</v>
       </c>
       <c r="J17" s="5" t="n">
-        <v>-2.86429504447911</v>
+        <v>-2.867089738172009</v>
       </c>
       <c r="K17" s="5" t="n">
-        <v>-0.9947992029322246</v>
+        <v>-1.274248777122424</v>
       </c>
     </row>
     <row r="18">
@@ -1112,31 +1112,31 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>0.6275154525481534</v>
+        <v>0.6309725098131416</v>
       </c>
       <c r="D18" s="5" t="n">
         <v>0</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>0.5819181943261199</v>
+        <v>0.5818480548140218</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>2.120666857852039</v>
+        <v>1.812694397556771</v>
       </c>
       <c r="G18" s="5" t="n">
-        <v>0.02167071176897722</v>
+        <v>0.3573304875354987</v>
       </c>
       <c r="H18" s="5" t="n">
-        <v>2.955246574621502</v>
+        <v>3.37043811677644</v>
       </c>
       <c r="I18" s="5" t="n">
-        <v>0.9818364733517086</v>
+        <v>0.9676588219393994</v>
       </c>
       <c r="J18" s="5" t="n">
-        <v>0.01031642854494742</v>
+        <v>0.02199456751147124</v>
       </c>
       <c r="K18" s="5" t="n">
-        <v>1.846316785411512</v>
+        <v>1.741678124979379</v>
       </c>
     </row>
     <row r="19">
@@ -1162,7 +1162,7 @@
         <v>-0.6073007636654209</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.1772630462034757</v>
+        <v>0.1772630462034755</v>
       </c>
       <c r="I19" s="6" t="n">
         <v>-0.2245787442511911</v>
@@ -1185,22 +1185,22 @@
       <c r="D20" s="6" t="inlineStr"/>
       <c r="E20" s="6" t="inlineStr"/>
       <c r="F20" s="6" t="n">
-        <v>-0.7150776618852487</v>
+        <v>-0.707285093964609</v>
       </c>
       <c r="G20" s="6" t="n">
-        <v>-0.9113230422747759</v>
+        <v>-0.9166781352797669</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>-0.3884233038368982</v>
+        <v>-0.3474202569413369</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>-0.6939915228680441</v>
+        <v>-0.6952433349637469</v>
       </c>
       <c r="J20" s="6" t="n">
-        <v>-0.9276468533318566</v>
+        <v>-0.9240674200030696</v>
       </c>
       <c r="K20" s="6" t="n">
-        <v>-0.3281148553718483</v>
+        <v>-0.3955752273976789</v>
       </c>
     </row>
     <row r="21">
@@ -1214,22 +1214,22 @@
       <c r="D21" s="6" t="inlineStr"/>
       <c r="E21" s="6" t="inlineStr"/>
       <c r="F21" s="6" t="n">
-        <v>0.8914884033872159</v>
+        <v>0.8085386390489598</v>
       </c>
       <c r="G21" s="6" t="n">
-        <v>0.3223029006388421</v>
+        <v>0.4015389440232984</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>1.176314965902455</v>
+        <v>1.462604632702293</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>0.6486776761539617</v>
+        <v>0.7044694213810836</v>
       </c>
       <c r="J21" s="6" t="n">
-        <v>0.2828425316065334</v>
+        <v>0.1314537453765291</v>
       </c>
       <c r="K21" s="6" t="n">
-        <v>1.444797628224909</v>
+        <v>1.355781582106579</v>
       </c>
     </row>
     <row r="22">
@@ -1259,7 +1259,7 @@
         <v>2.474455783463506</v>
       </c>
       <c r="H22" s="5" t="n">
-        <v>4.078579689833663</v>
+        <v>4.078579689833664</v>
       </c>
       <c r="I22" s="5" t="n">
         <v>1.909031101627853</v>
@@ -1268,7 +1268,7 @@
         <v>1.51752850501203</v>
       </c>
       <c r="K22" s="5" t="n">
-        <v>3.235549831632341</v>
+        <v>3.23554983163234</v>
       </c>
     </row>
     <row r="23">
@@ -1283,25 +1283,25 @@
         <v>0</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>0.7704861461111321</v>
+        <v>0.774516869846359</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>0.571936193687172</v>
+        <v>0.6638180172955065</v>
       </c>
       <c r="G23" s="5" t="n">
-        <v>-0.5105202675996691</v>
+        <v>-0.6371466309325203</v>
       </c>
       <c r="H23" s="5" t="n">
-        <v>1.196361515516425</v>
+        <v>1.303000806228781</v>
       </c>
       <c r="I23" s="5" t="n">
-        <v>0.3656797101807902</v>
+        <v>0.190306364363563</v>
       </c>
       <c r="J23" s="5" t="n">
-        <v>-0.2742193417943186</v>
+        <v>-0.1880758043723937</v>
       </c>
       <c r="K23" s="5" t="n">
-        <v>1.649640625769048</v>
+        <v>1.507863779091166</v>
       </c>
     </row>
     <row r="24">
@@ -1313,28 +1313,28 @@
       </c>
       <c r="C24" s="5" t="inlineStr"/>
       <c r="D24" s="5" t="n">
-        <v>1.52204587921312</v>
+        <v>1.645375184185492</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>6.94098658206809</v>
+        <v>7.799950583605374</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>7.296964693368806</v>
+        <v>7.175326392446523</v>
       </c>
       <c r="G24" s="5" t="n">
-        <v>6.775558354753181</v>
+        <v>6.572679081509571</v>
       </c>
       <c r="H24" s="5" t="n">
-        <v>6.961430947730557</v>
+        <v>6.875192267149222</v>
       </c>
       <c r="I24" s="5" t="n">
-        <v>3.846278214137323</v>
+        <v>3.533658768847753</v>
       </c>
       <c r="J24" s="5" t="n">
-        <v>3.341873699220852</v>
+        <v>3.478687848310963</v>
       </c>
       <c r="K24" s="5" t="n">
-        <v>5.442481218140351</v>
+        <v>5.286879913582823</v>
       </c>
     </row>
     <row r="25">
@@ -1362,7 +1362,7 @@
         <v>0.6235130027838017</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>1.027719907745411</v>
+        <v>1.027719907745412</v>
       </c>
       <c r="I25" s="6" t="n">
         <v>0.9455182998771114</v>
@@ -1371,7 +1371,7 @@
         <v>0.7516121507137917</v>
       </c>
       <c r="K25" s="6" t="n">
-        <v>1.602525790891521</v>
+        <v>1.60252579089152</v>
       </c>
     </row>
     <row r="26">
@@ -1385,22 +1385,22 @@
       <c r="D26" s="6" t="inlineStr"/>
       <c r="E26" s="6" t="inlineStr"/>
       <c r="F26" s="6" t="n">
-        <v>0.04455161795839182</v>
+        <v>0.08985465803325192</v>
       </c>
       <c r="G26" s="6" t="n">
-        <v>-0.1833017735664546</v>
+        <v>-0.156468697255193</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.1872727459958264</v>
+        <v>0.2217524479956099</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.09515142881269509</v>
+        <v>0.0298018107724882</v>
       </c>
       <c r="J26" s="6" t="n">
-        <v>-0.1636584838104189</v>
+        <v>-0.1001241471295633</v>
       </c>
       <c r="K26" s="6" t="n">
-        <v>0.5795900643869437</v>
+        <v>0.4756124652928641</v>
       </c>
     </row>
     <row r="27">
@@ -1414,22 +1414,22 @@
       <c r="D27" s="6" t="inlineStr"/>
       <c r="E27" s="6" t="inlineStr"/>
       <c r="F27" s="6" t="n">
-        <v>2.674323269492566</v>
+        <v>2.829434359976601</v>
       </c>
       <c r="G27" s="6" t="n">
-        <v>2.32210931275375</v>
+        <v>2.324227399272481</v>
       </c>
       <c r="H27" s="6" t="n">
-        <v>2.630559019939821</v>
+        <v>2.678634056059168</v>
       </c>
       <c r="I27" s="6" t="n">
-        <v>3.040535102908947</v>
+        <v>2.555146826340777</v>
       </c>
       <c r="J27" s="6" t="n">
-        <v>2.368793372744892</v>
+        <v>2.547691787460161</v>
       </c>
       <c r="K27" s="6" t="n">
-        <v>4.027675529649676</v>
+        <v>3.795880094399974</v>
       </c>
     </row>
     <row r="28">
@@ -1459,7 +1459,7 @@
         <v>-0.5872051395933159</v>
       </c>
       <c r="H28" s="5" t="n">
-        <v>3.165371488271612</v>
+        <v>3.165371488271611</v>
       </c>
       <c r="I28" s="5" t="n">
         <v>0.8577446130890202</v>
@@ -1468,7 +1468,7 @@
         <v>-0.4904619976719469</v>
       </c>
       <c r="K28" s="5" t="n">
-        <v>1.86380921388318</v>
+        <v>1.863809213883179</v>
       </c>
     </row>
     <row r="29">
@@ -1479,31 +1479,31 @@
         </is>
       </c>
       <c r="C29" s="5" t="n">
-        <v>-2.039005571548604</v>
+        <v>-2.419719710895639</v>
       </c>
       <c r="D29" s="5" t="n">
-        <v>-2.009358477284509</v>
+        <v>-2.137990886589716</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>-0.9652703070726267</v>
+        <v>-0.7839789899827369</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>-0.8524481455788777</v>
+        <v>-0.9162832354882763</v>
       </c>
       <c r="G29" s="5" t="n">
-        <v>-3.136027538916252</v>
+        <v>-3.066591257232916</v>
       </c>
       <c r="H29" s="5" t="n">
-        <v>0.4037337132361246</v>
+        <v>0.3091881566840337</v>
       </c>
       <c r="I29" s="5" t="n">
-        <v>-0.6920750017661312</v>
+        <v>-0.7887317815844338</v>
       </c>
       <c r="J29" s="5" t="n">
-        <v>-1.952166157032908</v>
+        <v>-1.714902653909764</v>
       </c>
       <c r="K29" s="5" t="n">
-        <v>0.3962772408871147</v>
+        <v>0.3776558038893246</v>
       </c>
     </row>
     <row r="30">
@@ -1520,25 +1520,25 @@
         <v>0</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>1.422278727288391</v>
+        <v>1.541284536577784</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>5.80408983802212</v>
+        <v>5.070720295556069</v>
       </c>
       <c r="G30" s="5" t="n">
-        <v>1.32341475505233</v>
+        <v>1.399478876663255</v>
       </c>
       <c r="H30" s="5" t="n">
-        <v>5.324993514564229</v>
+        <v>5.320387872225277</v>
       </c>
       <c r="I30" s="5" t="n">
-        <v>2.532207215119698</v>
+        <v>2.400292217811854</v>
       </c>
       <c r="J30" s="5" t="n">
-        <v>0.5278717096564017</v>
+        <v>0.5862009684979941</v>
       </c>
       <c r="K30" s="5" t="n">
-        <v>3.250154549356989</v>
+        <v>3.127649236114352</v>
       </c>
     </row>
     <row r="31">
@@ -1564,7 +1564,7 @@
         <v>-0.3726333782128854</v>
       </c>
       <c r="H31" s="6" t="n">
-        <v>2.008706994271727</v>
+        <v>2.008706994271726</v>
       </c>
       <c r="I31" s="6" t="n">
         <v>0.8635793382428369</v>
@@ -1573,7 +1573,7 @@
         <v>-0.4937983181933918</v>
       </c>
       <c r="K31" s="6" t="n">
-        <v>1.876487596628128</v>
+        <v>1.876487596628127</v>
       </c>
     </row>
     <row r="32">
@@ -1586,19 +1586,17 @@
       <c r="C32" s="6" t="inlineStr"/>
       <c r="D32" s="6" t="inlineStr"/>
       <c r="E32" s="6" t="inlineStr"/>
-      <c r="F32" s="6" t="n">
-        <v>-0.4651869269327099</v>
-      </c>
+      <c r="F32" s="6" t="inlineStr"/>
       <c r="G32" s="6" t="inlineStr"/>
       <c r="H32" s="6" t="n">
-        <v>-0.1175203592998773</v>
+        <v>-0.0433568595244143</v>
       </c>
       <c r="I32" s="6" t="n">
-        <v>-0.5571184294196847</v>
+        <v>-0.5304680469606401</v>
       </c>
       <c r="J32" s="6" t="inlineStr"/>
       <c r="K32" s="6" t="n">
-        <v>-0.02954405514763987</v>
+        <v>-0.02569775129277887</v>
       </c>
     </row>
     <row r="33">
@@ -1614,14 +1612,14 @@
       <c r="F33" s="6" t="inlineStr"/>
       <c r="G33" s="6" t="inlineStr"/>
       <c r="H33" s="6" t="n">
-        <v>9.530901571869194</v>
+        <v>10.44278298127169</v>
       </c>
       <c r="I33" s="6" t="n">
-        <v>6.626409325779665</v>
+        <v>8.03634532713051</v>
       </c>
       <c r="J33" s="6" t="inlineStr"/>
       <c r="K33" s="6" t="n">
-        <v>10.48380100291518</v>
+        <v>9.745544038724441</v>
       </c>
     </row>
     <row r="34">
@@ -1675,25 +1673,25 @@
         <v>0</v>
       </c>
       <c r="E35" s="5" t="n">
-        <v>0.6028535675632284</v>
+        <v>0.6096333459146724</v>
       </c>
       <c r="F35" s="5" t="n">
-        <v>-5.258646854233854</v>
+        <v>-5.041140233424906</v>
       </c>
       <c r="G35" s="5" t="n">
-        <v>-5.126122227313157</v>
+        <v>-5.153582028962936</v>
       </c>
       <c r="H35" s="5" t="n">
-        <v>-1.278599174716327</v>
+        <v>-1.404592751068697</v>
       </c>
       <c r="I35" s="5" t="n">
-        <v>-2.704611395142702</v>
+        <v>-2.711655895838821</v>
       </c>
       <c r="J35" s="5" t="n">
-        <v>-2.285073991416852</v>
+        <v>-2.364488142173527</v>
       </c>
       <c r="K35" s="5" t="n">
-        <v>-0.03946941395587012</v>
+        <v>-0.1554512506487211</v>
       </c>
     </row>
     <row r="36">
@@ -1705,28 +1703,28 @@
       </c>
       <c r="C36" s="5" t="inlineStr"/>
       <c r="D36" s="5" t="n">
-        <v>2.870914499969259</v>
+        <v>3.357084614239342</v>
       </c>
       <c r="E36" s="5" t="n">
-        <v>3.165419327269548</v>
+        <v>3.112192119301473</v>
       </c>
       <c r="F36" s="5" t="n">
-        <v>0.6309421170016362</v>
+        <v>1.113673929948013</v>
       </c>
       <c r="G36" s="5" t="n">
-        <v>0.8825489550306679</v>
+        <v>0.9449285371262394</v>
       </c>
       <c r="H36" s="5" t="n">
-        <v>5.045087666142855</v>
+        <v>4.833798541574857</v>
       </c>
       <c r="I36" s="5" t="n">
-        <v>0.4320634556746879</v>
+        <v>0.3148701208948268</v>
       </c>
       <c r="J36" s="5" t="n">
-        <v>1.071272194961386</v>
+        <v>1.13928640650934</v>
       </c>
       <c r="K36" s="5" t="n">
-        <v>3.394645842078634</v>
+        <v>3.188074948347765</v>
       </c>
     </row>
     <row r="37">
@@ -1754,7 +1752,7 @@
         <v>-0.4604729949058532</v>
       </c>
       <c r="H37" s="6" t="n">
-        <v>0.4597216877620051</v>
+        <v>0.4597216877620053</v>
       </c>
       <c r="I37" s="6" t="n">
         <v>-0.4731834601205204</v>
@@ -1777,22 +1775,22 @@
       <c r="D38" s="6" t="inlineStr"/>
       <c r="E38" s="6" t="inlineStr"/>
       <c r="F38" s="6" t="n">
-        <v>-0.8595956272061123</v>
+        <v>-0.84058783813621</v>
       </c>
       <c r="G38" s="6" t="n">
-        <v>-0.833212876938168</v>
+        <v>-0.8200941078282438</v>
       </c>
       <c r="H38" s="6" t="n">
-        <v>-0.2206470529013229</v>
+        <v>-0.2301049207775998</v>
       </c>
       <c r="I38" s="6" t="n">
-        <v>-0.8284300815154049</v>
+        <v>-0.8461047089201924</v>
       </c>
       <c r="J38" s="6" t="n">
-        <v>-0.7348551898067092</v>
+        <v>-0.7283544967158411</v>
       </c>
       <c r="K38" s="6" t="n">
-        <v>-0.1022077294925029</v>
+        <v>-0.1064292270355505</v>
       </c>
     </row>
     <row r="39">
@@ -1806,22 +1804,22 @@
       <c r="D39" s="6" t="inlineStr"/>
       <c r="E39" s="6" t="inlineStr"/>
       <c r="F39" s="6" t="n">
-        <v>0.319539520132975</v>
+        <v>0.6050355020337493</v>
       </c>
       <c r="G39" s="6" t="n">
-        <v>0.4441746806622707</v>
+        <v>0.5515327214573813</v>
       </c>
       <c r="H39" s="6" t="n">
-        <v>2.262075619014436</v>
+        <v>2.1154041443248</v>
       </c>
       <c r="I39" s="6" t="n">
-        <v>0.6300761923007738</v>
+        <v>0.3741231451990049</v>
       </c>
       <c r="J39" s="6" t="n">
-        <v>0.9964792553824833</v>
+        <v>1.132981642991993</v>
       </c>
       <c r="K39" s="6" t="n">
-        <v>2.78683918507114</v>
+        <v>2.495747232854397</v>
       </c>
     </row>
     <row r="40">
@@ -1842,7 +1840,7 @@
         <v>0.1488895091564891</v>
       </c>
       <c r="E40" s="5" t="n">
-        <v>0.09635719875506661</v>
+        <v>0.09635719875506643</v>
       </c>
       <c r="F40" s="5" t="n">
         <v>0.9737732952159884</v>
@@ -1851,7 +1849,7 @@
         <v>1.114267482483339</v>
       </c>
       <c r="H40" s="5" t="n">
-        <v>2.155132655226444</v>
+        <v>2.155132655226445</v>
       </c>
       <c r="I40" s="5" t="n">
         <v>0.2815017992566671</v>
@@ -1860,7 +1858,7 @@
         <v>0.6544545463940497</v>
       </c>
       <c r="K40" s="5" t="n">
-        <v>1.18509759097992</v>
+        <v>1.185097590979922</v>
       </c>
     </row>
     <row r="41">
@@ -1871,31 +1869,31 @@
         </is>
       </c>
       <c r="C41" s="5" t="n">
-        <v>-1.400079730802258</v>
+        <v>-1.21929854833096</v>
       </c>
       <c r="D41" s="5" t="n">
-        <v>-0.7858705756306646</v>
+        <v>-0.7561744785698538</v>
       </c>
       <c r="E41" s="5" t="n">
-        <v>-0.8026301830458746</v>
+        <v>-0.808883172201623</v>
       </c>
       <c r="F41" s="5" t="n">
-        <v>-0.9260588961655172</v>
+        <v>-1.086694065059938</v>
       </c>
       <c r="G41" s="5" t="n">
-        <v>-1.024367573041063</v>
+        <v>-1.162434539582113</v>
       </c>
       <c r="H41" s="5" t="n">
-        <v>0.1195118025956426</v>
+        <v>0.1932825673812041</v>
       </c>
       <c r="I41" s="5" t="n">
-        <v>-0.7998863355940553</v>
+        <v>-0.8992981720486866</v>
       </c>
       <c r="J41" s="5" t="n">
-        <v>-0.5598037576987456</v>
+        <v>-0.5798968698144202</v>
       </c>
       <c r="K41" s="5" t="n">
-        <v>-0.05126472635864898</v>
+        <v>0.1701259918339453</v>
       </c>
     </row>
     <row r="42">
@@ -1906,31 +1904,31 @@
         </is>
       </c>
       <c r="C42" s="5" t="n">
-        <v>0.162072559291573</v>
+        <v>0.1641386216345591</v>
       </c>
       <c r="D42" s="5" t="n">
-        <v>1.105364121657049</v>
+        <v>1.037772267019287</v>
       </c>
       <c r="E42" s="5" t="n">
-        <v>0.927853580003684</v>
+        <v>0.8525283887011789</v>
       </c>
       <c r="F42" s="5" t="n">
-        <v>3.176752764392488</v>
+        <v>2.962620389645515</v>
       </c>
       <c r="G42" s="5" t="n">
-        <v>3.526234440151045</v>
+        <v>3.309365721698858</v>
       </c>
       <c r="H42" s="5" t="n">
-        <v>4.083966553959334</v>
+        <v>4.285049782838811</v>
       </c>
       <c r="I42" s="5" t="n">
-        <v>1.414189398912491</v>
+        <v>1.512224423368014</v>
       </c>
       <c r="J42" s="5" t="n">
-        <v>1.878048123083037</v>
+        <v>1.961397335537167</v>
       </c>
       <c r="K42" s="5" t="n">
-        <v>2.197928818548057</v>
+        <v>2.381684219869063</v>
       </c>
     </row>
     <row r="43">
@@ -1947,7 +1945,7 @@
         <v>0.2410536832731912</v>
       </c>
       <c r="E43" s="6" t="n">
-        <v>0.156003319517851</v>
+        <v>0.1560033195178507</v>
       </c>
       <c r="F43" s="6" t="n">
         <v>0.2789837785337129</v>
@@ -1956,7 +1954,7 @@
         <v>0.3192350355957325</v>
       </c>
       <c r="H43" s="6" t="n">
-        <v>0.6174404806029382</v>
+        <v>0.6174404806029384</v>
       </c>
       <c r="I43" s="6" t="n">
         <v>0.1352966441980673</v>
@@ -1965,7 +1963,7 @@
         <v>0.3145468488695146</v>
       </c>
       <c r="K43" s="6" t="n">
-        <v>0.5695868642054498</v>
+        <v>0.5695868642054505</v>
       </c>
     </row>
     <row r="44">
@@ -1976,29 +1974,27 @@
         </is>
       </c>
       <c r="C44" s="6" t="inlineStr"/>
-      <c r="D44" s="6" t="n">
-        <v>-0.8251819068222408</v>
-      </c>
+      <c r="D44" s="6" t="inlineStr"/>
       <c r="E44" s="6" t="n">
-        <v>-0.8394793841127483</v>
+        <v>-0.8675515414969082</v>
       </c>
       <c r="F44" s="6" t="n">
-        <v>-0.2467147927821711</v>
+        <v>-0.2816502047248157</v>
       </c>
       <c r="G44" s="6" t="n">
-        <v>-0.2366817679797545</v>
+        <v>-0.2640995979455305</v>
       </c>
       <c r="H44" s="6" t="n">
-        <v>0.02154759625881602</v>
+        <v>0.01743208303144927</v>
       </c>
       <c r="I44" s="6" t="n">
-        <v>-0.3241348037005696</v>
+        <v>-0.3489459385117063</v>
       </c>
       <c r="J44" s="6" t="n">
-        <v>-0.2265089544335066</v>
+        <v>-0.2178325442310684</v>
       </c>
       <c r="K44" s="6" t="n">
-        <v>-0.03585800601376285</v>
+        <v>0.04781475149583202</v>
       </c>
     </row>
     <row r="45">
@@ -2009,29 +2005,27 @@
         </is>
       </c>
       <c r="C45" s="6" t="inlineStr"/>
-      <c r="D45" s="6" t="n">
-        <v>6.022453456141112</v>
-      </c>
+      <c r="D45" s="6" t="inlineStr"/>
       <c r="E45" s="6" t="n">
-        <v>4.899133654387704</v>
+        <v>4.698302496200792</v>
       </c>
       <c r="F45" s="6" t="n">
-        <v>1.315264872186432</v>
+        <v>1.196466769276116</v>
       </c>
       <c r="G45" s="6" t="n">
-        <v>1.410153413137933</v>
+        <v>1.30018669200925</v>
       </c>
       <c r="H45" s="6" t="n">
-        <v>1.667837326319777</v>
+        <v>1.695208030845576</v>
       </c>
       <c r="I45" s="6" t="n">
-        <v>0.9527630300401712</v>
+        <v>0.9851420317881318</v>
       </c>
       <c r="J45" s="6" t="n">
-        <v>1.226036663982431</v>
+        <v>1.378771385170929</v>
       </c>
       <c r="K45" s="6" t="n">
-        <v>1.399448539039278</v>
+        <v>1.602410742693764</v>
       </c>
     </row>
     <row r="46">
@@ -2081,31 +2075,31 @@
         </is>
       </c>
       <c r="C47" s="5" t="n">
-        <v>-5.157963693116821</v>
+        <v>-5.028068383207561</v>
       </c>
       <c r="D47" s="5" t="n">
-        <v>-5.14971047079567</v>
+        <v>-5.088816855136471</v>
       </c>
       <c r="E47" s="5" t="n">
-        <v>-4.398009606524776</v>
+        <v>-4.493076506905417</v>
       </c>
       <c r="F47" s="5" t="n">
-        <v>-3.385502204019863</v>
+        <v>-3.293326607218082</v>
       </c>
       <c r="G47" s="5" t="n">
-        <v>-4.298222090853841</v>
+        <v>-4.21790674571335</v>
       </c>
       <c r="H47" s="5" t="n">
-        <v>-3.420882673613448</v>
+        <v>-3.276999651337513</v>
       </c>
       <c r="I47" s="5" t="n">
-        <v>-3.534809693492749</v>
+        <v>-3.548496886662697</v>
       </c>
       <c r="J47" s="5" t="n">
-        <v>-4.078493862489373</v>
+        <v>-4.221507346596918</v>
       </c>
       <c r="K47" s="5" t="n">
-        <v>-3.323043415105673</v>
+        <v>-3.213735506583248</v>
       </c>
     </row>
     <row r="48">
@@ -2116,31 +2110,31 @@
         </is>
       </c>
       <c r="C48" s="5" t="n">
-        <v>-2.387134384329002</v>
+        <v>-2.203221753500864</v>
       </c>
       <c r="D48" s="5" t="n">
-        <v>-2.411300428373392</v>
+        <v>-2.224458361573025</v>
       </c>
       <c r="E48" s="5" t="n">
-        <v>-1.65719134233216</v>
+        <v>-1.457407835059372</v>
       </c>
       <c r="F48" s="5" t="n">
-        <v>0.8959452651797141</v>
+        <v>0.7841987642981546</v>
       </c>
       <c r="G48" s="5" t="n">
-        <v>-0.2226925975332731</v>
+        <v>-0.4629316846883812</v>
       </c>
       <c r="H48" s="5" t="n">
-        <v>0.3689028471182282</v>
+        <v>0.4466252835106104</v>
       </c>
       <c r="I48" s="5" t="n">
-        <v>-1.067521383934946</v>
+        <v>-0.9365701067246383</v>
       </c>
       <c r="J48" s="5" t="n">
-        <v>-1.618270088221087</v>
+        <v>-1.74727631573902</v>
       </c>
       <c r="K48" s="5" t="n">
-        <v>-0.883164078428351</v>
+        <v>-0.9086927749460691</v>
       </c>
     </row>
     <row r="49">
@@ -2192,25 +2186,25 @@
         <v>-1</v>
       </c>
       <c r="E50" s="6" t="n">
-        <v>-0.9194933823232456</v>
+        <v>-0.9110903529895091</v>
       </c>
       <c r="F50" s="6" t="n">
-        <v>-0.5509719688715529</v>
+        <v>-0.5541146987606984</v>
       </c>
       <c r="G50" s="6" t="n">
-        <v>-0.6920986951361888</v>
+        <v>-0.6947021623832947</v>
       </c>
       <c r="H50" s="6" t="n">
-        <v>-0.5412035221679481</v>
+        <v>-0.5351534495787559</v>
       </c>
       <c r="I50" s="6" t="n">
-        <v>-0.7139256086299248</v>
+        <v>-0.7021431909178182</v>
       </c>
       <c r="J50" s="6" t="n">
-        <v>-0.8094462901164884</v>
+        <v>-0.8169594105043988</v>
       </c>
       <c r="K50" s="6" t="n">
-        <v>-0.6456771428574314</v>
+        <v>-0.6388554608629843</v>
       </c>
     </row>
     <row r="51">
@@ -2221,31 +2215,31 @@
         </is>
       </c>
       <c r="C51" s="6" t="n">
-        <v>-0.7692903907409269</v>
+        <v>-0.7796677348914938</v>
       </c>
       <c r="D51" s="6" t="n">
-        <v>-0.7381659719717761</v>
+        <v>-0.8061924023732195</v>
       </c>
       <c r="E51" s="6" t="n">
-        <v>-0.5554447454196502</v>
+        <v>-0.5269775828151297</v>
       </c>
       <c r="F51" s="6" t="n">
-        <v>0.270705441929447</v>
+        <v>0.2124186542362669</v>
       </c>
       <c r="G51" s="6" t="n">
-        <v>-0.02434191738207532</v>
+        <v>-0.1060010786218098</v>
       </c>
       <c r="H51" s="6" t="n">
-        <v>0.1362504093231654</v>
+        <v>0.120160327915972</v>
       </c>
       <c r="I51" s="6" t="n">
-        <v>-0.2879225306929784</v>
+        <v>-0.2577678380021565</v>
       </c>
       <c r="J51" s="6" t="n">
-        <v>-0.4486833800262711</v>
+        <v>-0.4797747141879492</v>
       </c>
       <c r="K51" s="6" t="n">
-        <v>-0.2505543794563002</v>
+        <v>-0.2510215209150921</v>
       </c>
     </row>
     <row r="52">
@@ -2275,7 +2269,7 @@
         <v>-0.8530677712089728</v>
       </c>
       <c r="H52" s="5" t="n">
-        <v>0.452643035199142</v>
+        <v>0.4526430351991406</v>
       </c>
       <c r="I52" s="5" t="n">
         <v>-0.560299760274606</v>
@@ -2284,7 +2278,7 @@
         <v>-0.7609651071093577</v>
       </c>
       <c r="K52" s="5" t="n">
-        <v>0.156000542337072</v>
+        <v>0.1560005423370724</v>
       </c>
     </row>
     <row r="53">
@@ -2295,31 +2289,31 @@
         </is>
       </c>
       <c r="C53" s="5" t="n">
-        <v>-1.248147357041868</v>
+        <v>-1.254345511414412</v>
       </c>
       <c r="D53" s="5" t="n">
-        <v>-1.135229964147827</v>
+        <v>-1.132285380335392</v>
       </c>
       <c r="E53" s="5" t="n">
-        <v>-0.6518341314529257</v>
+        <v>-0.6703880529199482</v>
       </c>
       <c r="F53" s="5" t="n">
-        <v>-1.236916918945083</v>
+        <v>-1.24490245802353</v>
       </c>
       <c r="G53" s="5" t="n">
-        <v>-1.795097399612938</v>
+        <v>-1.728176839188395</v>
       </c>
       <c r="H53" s="5" t="n">
-        <v>-0.4593069574716102</v>
+        <v>-0.3817791864945256</v>
       </c>
       <c r="I53" s="5" t="n">
-        <v>-1.110614065600535</v>
+        <v>-1.131501953107544</v>
       </c>
       <c r="J53" s="5" t="n">
-        <v>-1.33694743826209</v>
+        <v>-1.235665552666104</v>
       </c>
       <c r="K53" s="5" t="n">
-        <v>-0.3554443746599034</v>
+        <v>-0.3384194778159262</v>
       </c>
     </row>
     <row r="54">
@@ -2330,31 +2324,31 @@
         </is>
       </c>
       <c r="C54" s="5" t="n">
-        <v>-0.4662084902176323</v>
+        <v>-0.4841998286087606</v>
       </c>
       <c r="D54" s="5" t="n">
-        <v>-0.3428123066210814</v>
+        <v>-0.2895443075241938</v>
       </c>
       <c r="E54" s="5" t="n">
-        <v>0.3372477768248852</v>
+        <v>0.2959746811151037</v>
       </c>
       <c r="F54" s="5" t="n">
-        <v>0.7561408590920075</v>
+        <v>0.6680500137679429</v>
       </c>
       <c r="G54" s="5" t="n">
-        <v>0.1125461024655733</v>
+        <v>0.2002189481789115</v>
       </c>
       <c r="H54" s="5" t="n">
-        <v>1.263569785532912</v>
+        <v>1.401004881581855</v>
       </c>
       <c r="I54" s="5" t="n">
-        <v>-0.01861207164146777</v>
+        <v>-0.05897857126914956</v>
       </c>
       <c r="J54" s="5" t="n">
-        <v>-0.2384545863826545</v>
+        <v>-0.1988190255617947</v>
       </c>
       <c r="K54" s="5" t="n">
-        <v>0.6311467615040696</v>
+        <v>0.6614273749871672</v>
       </c>
     </row>
     <row r="55">
@@ -2380,7 +2374,7 @@
         <v>-0.1984072443121947</v>
       </c>
       <c r="H55" s="6" t="n">
-        <v>0.1052761108811948</v>
+        <v>0.1052761108811944</v>
       </c>
       <c r="I55" s="6" t="n">
         <v>-0.2081991187634825</v>
@@ -2389,7 +2383,7 @@
         <v>-0.2827633990638847</v>
       </c>
       <c r="K55" s="6" t="n">
-        <v>0.05796749837138162</v>
+        <v>0.05796749837138175</v>
       </c>
     </row>
     <row r="56">
@@ -2400,31 +2394,31 @@
         </is>
       </c>
       <c r="C56" s="6" t="n">
-        <v>-0.9365830477800893</v>
+        <v>-0.9380489670345287</v>
       </c>
       <c r="D56" s="6" t="n">
-        <v>-0.8373829252600938</v>
+        <v>-0.8258758387833767</v>
       </c>
       <c r="E56" s="6" t="n">
-        <v>-0.5133171104815935</v>
+        <v>-0.5219807646754945</v>
       </c>
       <c r="F56" s="6" t="n">
-        <v>-0.254307432369343</v>
+        <v>-0.2510457878898646</v>
       </c>
       <c r="G56" s="6" t="n">
-        <v>-0.3676184519711328</v>
+        <v>-0.3664898047614636</v>
       </c>
       <c r="H56" s="6" t="n">
-        <v>-0.09512901114693105</v>
+        <v>-0.07699519426319999</v>
       </c>
       <c r="I56" s="6" t="n">
-        <v>-0.3675016329342141</v>
+        <v>-0.3780221483190767</v>
       </c>
       <c r="J56" s="6" t="n">
-        <v>-0.4397714924802041</v>
+        <v>-0.4097403416191303</v>
       </c>
       <c r="K56" s="6" t="n">
-        <v>-0.1214854472160031</v>
+        <v>-0.1149029569487331</v>
       </c>
     </row>
     <row r="57">
@@ -2435,31 +2429,31 @@
         </is>
       </c>
       <c r="C57" s="6" t="n">
-        <v>-0.5047049242455754</v>
+        <v>-0.4894289985497238</v>
       </c>
       <c r="D57" s="6" t="n">
-        <v>-0.3840972558595646</v>
+        <v>-0.3273761060603413</v>
       </c>
       <c r="E57" s="6" t="n">
-        <v>0.4778049996409456</v>
+        <v>0.4110790475270782</v>
       </c>
       <c r="F57" s="6" t="n">
-        <v>0.2144933328463896</v>
+        <v>0.1780692457251948</v>
       </c>
       <c r="G57" s="6" t="n">
-        <v>0.03995216229509056</v>
+        <v>0.0552282410043035</v>
       </c>
       <c r="H57" s="6" t="n">
-        <v>0.3370706063691195</v>
+        <v>0.3775326138639648</v>
       </c>
       <c r="I57" s="6" t="n">
-        <v>-0.006041208728845572</v>
+        <v>-0.02327759572301701</v>
       </c>
       <c r="J57" s="6" t="n">
-        <v>-0.08728391920755529</v>
+        <v>-0.08185514510149197</v>
       </c>
       <c r="K57" s="6" t="n">
-        <v>0.2595349806750615</v>
+        <v>0.2815878104117301</v>
       </c>
     </row>
     <row r="58">
